--- a/config/biofuel_refining_capacity_parameters.xlsx
+++ b/config/biofuel_refining_capacity_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DF5DF-95C0-4520-BE90-AC49E9B57A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA42838-3A20-47F3-BC73-1ABD4078C35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="38" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_AUS" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="41">
   <si>
     <t>economy</t>
   </si>
@@ -1975,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -5058,9 +5058,11 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5082,6 +5084,11 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
